--- a/biology/Botanique/Cistus_albidus/Cistus_albidus.xlsx
+++ b/biology/Botanique/Cistus_albidus/Cistus_albidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Ciste cotonneux (Cistus albidus), appelé aussi Ciste blanc ou Ciste blanchâtre, est un arbrisseau caractéristique de la garrigue, supportant bien une période d’aridité et appréciant les sols calcaires.
 </t>
@@ -511,13 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est connue en langue anglaise sous le nom de « rockrose » (rose des roches) ou « white dart ».
-Étymologie
-Le nom ciste vient du grec ancien, κίσθος, « boîte, capsule », allusion à la forme du fruit capsulaire[1].
-Le mot latin albidus, signifiant « blanchâtre », fait référence aux feuilles duveteuses caractéristiques et non aux fleurs qui sont de couleur rose. Il est d’ailleurs parfois appelé ciste blanchâtre ou ciste blanc.
-</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La plante est connue en langue anglaise sous le nom de « rockrose » (rose des roches) ou « white dart ».</t>
         </is>
       </c>
     </row>
@@ -542,10 +552,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom ciste vient du grec ancien, κίσθος, « boîte, capsule », allusion à la forme du fruit capsulaire.
+Le mot latin albidus, signifiant « blanchâtre », fait référence aux feuilles duveteuses caractéristiques et non aux fleurs qui sont de couleur rose. Il est d’ailleurs parfois appelé ciste blanchâtre ou ciste blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cistus_albidus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cistus_albidus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cistus albidus est un arbrisseau de la famille des cistacées de taille moyenne (entre 0,5 et 1,2 m. de hauteur).
 Son feuillage persistant gris clair est composé de feuilles simples, sessiles, opposées et couvertes de poils étoilés.
@@ -555,33 +605,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Cistus_albidus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cistus_albidus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Aire de répartition en France métropolitaine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France métropolitaine, le ciste-blanc est présent surtout dans le Midi-Méditerranéen[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France métropolitaine, le ciste-blanc est présent surtout dans le Midi-Méditerranéen.
 </t>
         </is>
       </c>
